--- a/biology/Zoologie/Anthoscopus_flavifrons/Anthoscopus_flavifrons.xlsx
+++ b/biology/Zoologie/Anthoscopus_flavifrons/Anthoscopus_flavifrons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthoscopus flavifrons
-Le rémiz à front jaune (Anthoscopus flavifrons) est une espèce d'oiseau africain de la famille des remizidae[1].
+Le rémiz à front jaune (Anthoscopus flavifrons) est une espèce d'oiseau africain de la famille des remizidae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se trouve au Cameroun, en République centrafricaine, en République du Congo, en République démocratique du Congo, en Guinée équatoriale, au Gabon, au Nigeria et en Ouganda. Son habitat naturel est les terres basses et humides des forêts subtropicales ou tropicales.
 </t>
